--- a/biology/Botanique/Pinus_edulis/Pinus_edulis.xlsx
+++ b/biology/Botanique/Pinus_edulis/Pinus_edulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus edulis est une espèce de plantes de la famille des Pinacées. C'est un arbre appartenant  au genre Pinus et au groupe de pins à pignons dont l'ancêtre était membre de la Flore Madro-Tertiaire (un groupe d'arbres résistant à la sécheresse) [réf. souhaitée] et est originaire des États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse dans le Colorado, le sud du Wyoming, l'Utah oriental et central, le nord de l'Arizona, le Nouveau-Mexique et les monts de Guadalupe à l'ouest du Texas. [2] Il pousse à des altitudes comprises entre 1 600 et 2 400 mètres, exceptionnellement jusqu'à 1 400 mètres et aussi haut que 3 000 mètres. Il est très répandu et souvent abondant dans cette région, formant de vastes étendues boisées aérées, généralement mélangé avec des genévriers formant la communauté de plantes Pinus edulis-genièvre. Il est l'espèce dominante sur 19 000 kilomètres carrés au Colorado, soit 22 % des forêts de l’État. Il a une signification culturelle dans l'histoire de l'agriculture, son bois dur ayant servi  à faire le « pommeau des charrues » utilisées pour briser le sol au début de la colonisation agricole.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse dans le Colorado, le sud du Wyoming, l'Utah oriental et central, le nord de l'Arizona, le Nouveau-Mexique et les monts de Guadalupe à l'ouest du Texas.  Il pousse à des altitudes comprises entre 1 600 et 2 400 mètres, exceptionnellement jusqu'à 1 400 mètres et aussi haut que 3 000 mètres. Il est très répandu et souvent abondant dans cette région, formant de vastes étendues boisées aérées, généralement mélangé avec des genévriers formant la communauté de plantes Pinus edulis-genièvre. Il est l'espèce dominante sur 19 000 kilomètres carrés au Colorado, soit 22 % des forêts de l’État. Il a une signification culturelle dans l'histoire de l'agriculture, son bois dur ayant servi  à faire le « pommeau des charrues » utilisées pour briser le sol au début de la colonisation agricole.
 Il y a un exemple connu d'une Pinus edulis croissant parmi l'épinette d'Engelmann (Picea engelmannii) et le pin flexible (Pinus flexilis) à près de 3 170 mètres sur le mont Kendrick dans la forêt nationale de Kaibab au Nord de l'Arizona.
 </t>
         </is>
